--- a/teaching/traditional_assets/database/data/spain/spain_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/spain/spain_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.06275</v>
+        <v>-0.007725</v>
       </c>
       <c r="E2">
-        <v>0.09355000000000001</v>
+        <v>-0.1015</v>
       </c>
       <c r="F2">
-        <v>0.0362</v>
+        <v>-0.019</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,103 +606,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.003014023097451467</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.002261264634826533</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>15464.8</v>
+        <v>-5220</v>
       </c>
       <c r="L2">
-        <v>0.1806485677005762</v>
+        <v>-0.06410413852388555</v>
       </c>
       <c r="M2">
-        <v>8557.322099999999</v>
+        <v>6708.5834</v>
       </c>
       <c r="N2">
-        <v>0.057837446867183</v>
+        <v>0.05738609235380565</v>
       </c>
       <c r="O2">
-        <v>0.5533419184211887</v>
+        <v>-1.285169233716475</v>
       </c>
       <c r="P2">
-        <v>6879.2221</v>
+        <v>5415.6834</v>
       </c>
       <c r="Q2">
-        <v>0.04649546178661442</v>
+        <v>0.04632645809417412</v>
       </c>
       <c r="R2">
-        <v>0.4448309774455537</v>
+        <v>-1.03748724137931</v>
       </c>
       <c r="S2">
-        <v>1678.099999999999</v>
+        <v>1292.9</v>
       </c>
       <c r="T2">
-        <v>0.1961010676459169</v>
+        <v>0.1927232506344037</v>
       </c>
       <c r="U2">
-        <v>172494.2</v>
+        <v>304174.4</v>
       </c>
       <c r="V2">
-        <v>1.165858198489132</v>
+        <v>2.601947262079714</v>
       </c>
       <c r="W2">
-        <v>0.05744155263280083</v>
+        <v>0.01991026507688584</v>
       </c>
       <c r="X2">
-        <v>0.1083822453435704</v>
+        <v>0.1336179048857245</v>
       </c>
       <c r="Y2">
-        <v>-0.05094069271076955</v>
+        <v>-0.1137076398088387</v>
       </c>
       <c r="Z2">
-        <v>0.1227421812252959</v>
+        <v>0.1275448270806661</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05229186620332946</v>
+        <v>0.04812818290305465</v>
       </c>
       <c r="AC2">
-        <v>-0.05277394294002444</v>
+        <v>-0.04812818290305465</v>
       </c>
       <c r="AD2">
-        <v>613522.2</v>
+        <v>657771.8</v>
       </c>
       <c r="AE2">
-        <v>3325.108883529188</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>616847.3088835292</v>
+        <v>657771.8</v>
       </c>
       <c r="AG2">
-        <v>444353.1088835291</v>
+        <v>353597.4</v>
       </c>
       <c r="AH2">
-        <v>0.8065450949638761</v>
+        <v>0.8490945357171994</v>
       </c>
       <c r="AI2">
-        <v>0.7121981746780268</v>
+        <v>0.734790809113316</v>
       </c>
       <c r="AJ2">
-        <v>0.7502063998128148</v>
+        <v>0.7515353878852286</v>
       </c>
       <c r="AK2">
-        <v>0.6406259755006927</v>
+        <v>0.5982954545454546</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>1507.425552825553</v>
-      </c>
-      <c r="AP2">
-        <v>1091.776680303512</v>
       </c>
     </row>
     <row r="3">
@@ -722,13 +716,13 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0221</v>
+        <v>-0.00813</v>
       </c>
       <c r="E3">
-        <v>-0.213</v>
+        <v>-0.058</v>
       </c>
       <c r="F3">
-        <v>0.0698</v>
+        <v>0.161</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -743,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>184.9</v>
+        <v>106</v>
       </c>
       <c r="L3">
-        <v>0.1661126583415686</v>
+        <v>0.09335094671950682</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -770,55 +764,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2850.3</v>
+        <v>5401.6</v>
       </c>
       <c r="V3">
-        <v>1.631820003435049</v>
+        <v>3.909386987044945</v>
       </c>
       <c r="W3">
-        <v>0.04022800948589082</v>
+        <v>0.02424242424242424</v>
       </c>
       <c r="X3">
-        <v>0.05348242225148668</v>
+        <v>0.05551181641836642</v>
       </c>
       <c r="Y3">
-        <v>-0.01325441276559586</v>
+        <v>-0.03126939217594217</v>
       </c>
       <c r="Z3">
-        <v>0.6566574243407467</v>
+        <v>0.5340262427691295</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04890329076840763</v>
+        <v>0.04482106437837653</v>
       </c>
       <c r="AC3">
-        <v>-0.04890329076840763</v>
+        <v>-0.04482106437837653</v>
       </c>
       <c r="AD3">
-        <v>604.1</v>
+        <v>992.2</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>604.1</v>
+        <v>992.2</v>
       </c>
       <c r="AG3">
-        <v>-2246.2</v>
+        <v>-4409.400000000001</v>
       </c>
       <c r="AH3">
-        <v>0.2569763484771141</v>
+        <v>0.4179620034542315</v>
       </c>
       <c r="AI3">
-        <v>0.1213880962906402</v>
+        <v>0.1717411247468541</v>
       </c>
       <c r="AJ3">
-        <v>4.496896896896895</v>
+        <v>1.456353007233213</v>
       </c>
       <c r="AK3">
-        <v>-1.056389032591826</v>
+        <v>-11.73649188182061</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -844,13 +838,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.108</v>
+        <v>0.08169999999999999</v>
       </c>
       <c r="E4">
-        <v>0.166</v>
+        <v>-0.0119</v>
       </c>
       <c r="F4">
-        <v>0.0363</v>
+        <v>0.00428</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -865,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>618.4</v>
+        <v>383.2</v>
       </c>
       <c r="L4">
-        <v>0.3010710808179162</v>
+        <v>0.1735507246376811</v>
       </c>
       <c r="M4">
-        <v>97.01639999999999</v>
+        <v>103.3505</v>
       </c>
       <c r="N4">
-        <v>0.01473316223480994</v>
+        <v>0.02125023131489668</v>
       </c>
       <c r="O4">
-        <v>0.1568829236739974</v>
+        <v>0.2697038100208768</v>
       </c>
       <c r="P4">
-        <v>97.01639999999999</v>
+        <v>103.3505</v>
       </c>
       <c r="Q4">
-        <v>0.01473316223480994</v>
+        <v>0.02125023131489668</v>
       </c>
       <c r="R4">
-        <v>0.1568829236739974</v>
+        <v>0.2697038100208768</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -895,55 +889,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>8439.1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1.281583623137785</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.1195692105415805</v>
+        <v>0.07348175420429923</v>
       </c>
       <c r="X4">
-        <v>0.07606448667361426</v>
+        <v>0.0902848682339171</v>
       </c>
       <c r="Y4">
-        <v>0.04350472386796621</v>
+        <v>-0.01680311402961787</v>
       </c>
       <c r="Z4">
-        <v>0.3152869663990667</v>
+        <v>0.3484463522022505</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.05165189138017334</v>
+        <v>0.04765620961932324</v>
       </c>
       <c r="AC4">
-        <v>-0.05165189138017334</v>
+        <v>-0.04765620961932324</v>
       </c>
       <c r="AD4">
-        <v>9560.9</v>
+        <v>11000</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>9560.9</v>
+        <v>11000</v>
       </c>
       <c r="AG4">
-        <v>1121.799999999999</v>
+        <v>11000</v>
       </c>
       <c r="AH4">
-        <v>0.5921601902661993</v>
+        <v>0.6934157027137769</v>
       </c>
       <c r="AI4">
-        <v>0.647064795137996</v>
+        <v>0.6649137123341493</v>
       </c>
       <c r="AJ4">
-        <v>0.1455616541450944</v>
+        <v>0.6934157027137769</v>
       </c>
       <c r="AK4">
-        <v>0.1770322091940599</v>
+        <v>0.6649137123341493</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -969,13 +963,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0342</v>
-      </c>
-      <c r="E5">
-        <v>0.0211</v>
+        <v>-0.0113</v>
       </c>
       <c r="F5">
-        <v>0.0361</v>
+        <v>-0.0746</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -990,28 +981,28 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6324.3</v>
+        <v>-7356.7</v>
       </c>
       <c r="L5">
-        <v>0.1445306518882477</v>
+        <v>-0.1808956383611766</v>
       </c>
       <c r="M5">
-        <v>2990.16</v>
+        <v>1958.0527</v>
       </c>
       <c r="N5">
-        <v>0.04300210540848376</v>
+        <v>0.0363978054089624</v>
       </c>
       <c r="O5">
-        <v>0.4728048954034438</v>
+        <v>-0.2661591066646731</v>
       </c>
       <c r="P5">
-        <v>2990.16</v>
+        <v>1958.0527</v>
       </c>
       <c r="Q5">
-        <v>0.04300210540848376</v>
+        <v>0.0363978054089624</v>
       </c>
       <c r="R5">
-        <v>0.4728048954034438</v>
+        <v>-0.2661591066646731</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1020,55 +1011,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>100971.5</v>
+        <v>173996</v>
       </c>
       <c r="V5">
-        <v>1.4520918901506</v>
+        <v>3.234372879717599</v>
       </c>
       <c r="W5">
-        <v>0.05731200939567879</v>
+        <v>-0.06888244282814361</v>
       </c>
       <c r="X5">
-        <v>0.1537678986726881</v>
+        <v>0.1986328546522807</v>
       </c>
       <c r="Y5">
-        <v>-0.09645588927700929</v>
+        <v>-0.2675152974804243</v>
       </c>
       <c r="Z5">
-        <v>0.1103954507209795</v>
+        <v>0.1178268601503916</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.05186664055840912</v>
+        <v>0.04774246018771645</v>
       </c>
       <c r="AC5">
-        <v>-0.05186664055840912</v>
+        <v>-0.04774246018771645</v>
       </c>
       <c r="AD5">
-        <v>365611.2</v>
+        <v>380419.2</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>365611.2</v>
+        <v>380419.2</v>
       </c>
       <c r="AG5">
-        <v>264639.7</v>
+        <v>206423.2</v>
       </c>
       <c r="AH5">
-        <v>0.8402027455587361</v>
+        <v>0.8761077171199251</v>
       </c>
       <c r="AI5">
-        <v>0.7554773009375194</v>
+        <v>0.7801216017770454</v>
       </c>
       <c r="AJ5">
-        <v>0.7919197402318366</v>
+        <v>0.7932669046968497</v>
       </c>
       <c r="AK5">
-        <v>0.6910089358126544</v>
+        <v>0.6581430146002692</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1094,13 +1085,13 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.222</v>
+        <v>0.09570000000000001</v>
       </c>
       <c r="E6">
-        <v>0.247</v>
+        <v>0.0346</v>
       </c>
       <c r="F6">
-        <v>0.0337</v>
+        <v>-0.033</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1115,28 +1106,28 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1616.7</v>
+        <v>1368</v>
       </c>
       <c r="L6">
-        <v>0.188899924052112</v>
+        <v>0.1527450564419781</v>
       </c>
       <c r="M6">
-        <v>651.6347000000001</v>
+        <v>490.1468</v>
       </c>
       <c r="N6">
-        <v>0.0347142301586456</v>
+        <v>0.03190644447337586</v>
       </c>
       <c r="O6">
-        <v>0.4030646996969135</v>
+        <v>0.3582944444444444</v>
       </c>
       <c r="P6">
-        <v>651.6347000000001</v>
+        <v>490.1468</v>
       </c>
       <c r="Q6">
-        <v>0.0347142301586456</v>
+        <v>0.03190644447337586</v>
       </c>
       <c r="R6">
-        <v>0.4030646996969135</v>
+        <v>0.3582944444444444</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1145,55 +1136,55 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>21769.7</v>
+        <v>58723.6</v>
       </c>
       <c r="V6">
-        <v>1.159727031547993</v>
+        <v>3.822653300351517</v>
       </c>
       <c r="W6">
-        <v>0.05757109586992287</v>
+        <v>0.05085293909914465</v>
       </c>
       <c r="X6">
-        <v>0.08645253347841442</v>
+        <v>0.099983037474287</v>
       </c>
       <c r="Y6">
-        <v>-0.02888143760849154</v>
+        <v>-0.04913009837514234</v>
       </c>
       <c r="Z6">
-        <v>0.2182800799820449</v>
+        <v>0.2135577620083172</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.05227096902600845</v>
+        <v>0.04808517311852974</v>
       </c>
       <c r="AC6">
-        <v>-0.05227096902600845</v>
+        <v>-0.04808517311852974</v>
       </c>
       <c r="AD6">
-        <v>36806.2</v>
+        <v>41358.6</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>36806.2</v>
+        <v>41358.6</v>
       </c>
       <c r="AG6">
-        <v>15036.5</v>
+        <v>-17365</v>
       </c>
       <c r="AH6">
-        <v>0.6622488196683556</v>
+        <v>0.7291636548273467</v>
       </c>
       <c r="AI6">
-        <v>0.5774626673653624</v>
+        <v>0.5892554129700419</v>
       </c>
       <c r="AJ6">
-        <v>0.4447629104440086</v>
+        <v>8.669495756365452</v>
       </c>
       <c r="AK6">
-        <v>0.358284030013272</v>
+        <v>-1.514702162364907</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1219,13 +1210,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.09130000000000001</v>
-      </c>
-      <c r="E7">
-        <v>0.379</v>
+        <v>0.0107</v>
       </c>
       <c r="F7">
-        <v>-0.07240000000000001</v>
+        <v>0.169</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1234,103 +1222,97 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-0.01074402279894275</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>-0.007817821218391438</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>5090</v>
+        <v>-199.6</v>
       </c>
       <c r="L7">
-        <v>0.2339982438638673</v>
+        <v>-0.009463797182671199</v>
       </c>
       <c r="M7">
-        <v>4251.4</v>
+        <v>3455.9</v>
       </c>
       <c r="N7">
-        <v>0.1142938562414812</v>
+        <v>0.1054811495824584</v>
       </c>
       <c r="O7">
-        <v>0.8352455795677799</v>
+        <v>-17.31412825651303</v>
       </c>
       <c r="P7">
-        <v>2573.3</v>
+        <v>2163</v>
       </c>
       <c r="Q7">
-        <v>0.06918012425699854</v>
+        <v>0.06601919226449186</v>
       </c>
       <c r="R7">
-        <v>0.5055599214145383</v>
+        <v>-10.83667334669339</v>
       </c>
       <c r="S7">
-        <v>1678.099999999999</v>
+        <v>1292.9</v>
       </c>
       <c r="T7">
-        <v>0.3947170343886719</v>
+        <v>0.3741138343123355</v>
       </c>
       <c r="U7">
-        <v>6306.8</v>
+        <v>13379.5</v>
       </c>
       <c r="V7">
-        <v>0.1695508520825548</v>
+        <v>0.4083697563119598</v>
       </c>
       <c r="W7">
-        <v>0.09524451080997129</v>
+        <v>-0.003608378814694562</v>
       </c>
       <c r="X7">
-        <v>0.1196501500546425</v>
+        <v>0.1433281372904136</v>
       </c>
       <c r="Y7">
-        <v>-0.02440563924467122</v>
+        <v>-0.1469365161051082</v>
       </c>
       <c r="Z7">
-        <v>0.12332764416789</v>
+        <v>0.1220683715767042</v>
       </c>
       <c r="AA7">
-        <v>-0.0009641534733899599</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.05231276338065046</v>
+        <v>0.04817119268757956</v>
       </c>
       <c r="AC7">
-        <v>-0.05327691685404042</v>
+        <v>-0.04817119268757956</v>
       </c>
       <c r="AD7">
-        <v>130813.4</v>
+        <v>151249.4</v>
       </c>
       <c r="AE7">
-        <v>2605.536035647212</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>133418.9360356472</v>
+        <v>151249.4</v>
       </c>
       <c r="AG7">
-        <v>127112.1360356472</v>
+        <v>137869.9</v>
       </c>
       <c r="AH7">
-        <v>0.7819835645916171</v>
+        <v>0.8219513228985406</v>
       </c>
       <c r="AI7">
-        <v>0.682090312807479</v>
+        <v>0.7263723930331366</v>
       </c>
       <c r="AJ7">
-        <v>0.7736152823939245</v>
+        <v>0.8079903606041265</v>
       </c>
       <c r="AK7">
-        <v>0.6714984866984368</v>
+        <v>0.707583211784474</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>455.1614474599861</v>
-      </c>
-      <c r="AP7">
-        <v>442.2830063870815</v>
       </c>
     </row>
     <row r="8">
@@ -1350,13 +1332,13 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.012</v>
+        <v>-0.0461</v>
       </c>
       <c r="E8">
-        <v>-0.058</v>
+        <v>-0.145</v>
       </c>
       <c r="F8">
-        <v>0.08939999999999999</v>
+        <v>-0.005</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1371,82 +1353,85 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>106.9</v>
+        <v>86.5</v>
       </c>
       <c r="L8">
-        <v>0.1877085162423178</v>
+        <v>0.1324249846907532</v>
       </c>
       <c r="M8">
-        <v>-0</v>
+        <v>23.8328</v>
       </c>
       <c r="N8">
-        <v>-0</v>
+        <v>0.02595317434389633</v>
       </c>
       <c r="O8">
-        <v>-0</v>
+        <v>0.2755236994219653</v>
       </c>
       <c r="P8">
-        <v>-0</v>
+        <v>23.8328</v>
       </c>
       <c r="Q8">
-        <v>-0</v>
+        <v>0.02595317434389633</v>
       </c>
       <c r="R8">
-        <v>-0</v>
+        <v>0.2755236994219653</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
       <c r="U8">
-        <v>696.8</v>
+        <v>2430.7</v>
       </c>
       <c r="V8">
-        <v>0.6095704662759164</v>
+        <v>2.646956332353261</v>
       </c>
       <c r="W8">
-        <v>0.03244309559939302</v>
+        <v>0.02549140954233342</v>
       </c>
       <c r="X8">
-        <v>0.09711434063249826</v>
+        <v>0.1239076724810355</v>
       </c>
       <c r="Y8">
-        <v>-0.06467124503310523</v>
+        <v>-0.09841626293870205</v>
       </c>
       <c r="Z8">
-        <v>0.1876627014202392</v>
+        <v>0.1180169111801691</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.05330640522991402</v>
+        <v>0.04969954694050788</v>
       </c>
       <c r="AC8">
-        <v>-0.05330640522991402</v>
+        <v>-0.04969954694050788</v>
       </c>
       <c r="AD8">
-        <v>2838.3</v>
+        <v>3447.6</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>2838.3</v>
+        <v>3447.6</v>
       </c>
       <c r="AG8">
-        <v>2141.5</v>
+        <v>1016.9</v>
       </c>
       <c r="AH8">
-        <v>0.712889938212689</v>
+        <v>0.7896653610939326</v>
       </c>
       <c r="AI8">
-        <v>0.4554689004429039</v>
+        <v>0.476003755453692</v>
       </c>
       <c r="AJ8">
-        <v>0.651981976496377</v>
+        <v>0.5254754030591153</v>
       </c>
       <c r="AK8">
-        <v>0.3869155163691552</v>
+        <v>0.2113214604850273</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1472,13 +1457,13 @@
         </is>
       </c>
       <c r="D9">
-        <v>-0.0151</v>
+        <v>-0.0614</v>
       </c>
       <c r="E9">
-        <v>-0.08710000000000001</v>
+        <v>-0.289</v>
       </c>
       <c r="F9">
-        <v>-0.0625</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1493,28 +1478,28 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>582.5</v>
+        <v>172</v>
       </c>
       <c r="L9">
-        <v>0.1998216184693493</v>
+        <v>0.06173725771715721</v>
       </c>
       <c r="M9">
-        <v>384.3504</v>
+        <v>413.1136</v>
       </c>
       <c r="N9">
-        <v>0.05901552351559262</v>
+        <v>0.07672986627043091</v>
       </c>
       <c r="O9">
-        <v>0.6598290128755365</v>
+        <v>2.401823255813953</v>
       </c>
       <c r="P9">
-        <v>384.3504</v>
+        <v>413.1136</v>
       </c>
       <c r="Q9">
-        <v>0.05901552351559262</v>
+        <v>0.07672986627043091</v>
       </c>
       <c r="R9">
-        <v>0.6598290128755365</v>
+        <v>2.401823255813953</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1523,55 +1508,55 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>9784.1</v>
+        <v>18808.1</v>
       </c>
       <c r="V9">
-        <v>1.502310869531838</v>
+        <v>3.493332095096582</v>
       </c>
       <c r="W9">
-        <v>0.03788691811872752</v>
+        <v>0.01179196775033936</v>
       </c>
       <c r="X9">
-        <v>0.1550374374812192</v>
+        <v>0.1882167947010388</v>
       </c>
       <c r="Y9">
-        <v>-0.1171505193624917</v>
+        <v>-0.1764248269506994</v>
       </c>
       <c r="Z9">
-        <v>0.06225573736881895</v>
+        <v>0.07062032324133595</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.05492994773275994</v>
+        <v>0.05112227720757786</v>
       </c>
       <c r="AC9">
-        <v>-0.05492994773275994</v>
+        <v>-0.05112227720757786</v>
       </c>
       <c r="AD9">
-        <v>34648.3</v>
+        <v>35583.6</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>34648.3</v>
+        <v>35583.6</v>
       </c>
       <c r="AG9">
-        <v>24864.2</v>
+        <v>16775.5</v>
       </c>
       <c r="AH9">
-        <v>0.8417749811714974</v>
+        <v>0.868579072242455</v>
       </c>
       <c r="AI9">
-        <v>0.7035373522549834</v>
+        <v>0.6991928067845101</v>
       </c>
       <c r="AJ9">
-        <v>0.7924364739665167</v>
+        <v>0.7570342291116677</v>
       </c>
       <c r="AK9">
-        <v>0.6300380594254091</v>
+        <v>0.5228569736600144</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1597,13 +1582,13 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.0934</v>
+        <v>-0.00732</v>
       </c>
       <c r="E10">
-        <v>0.217</v>
+        <v>-0.204</v>
       </c>
       <c r="F10">
-        <v>0.242</v>
+        <v>-0.159</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1612,34 +1597,34 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>-0.004975255177179741</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>-0.0038811729498446</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>941.1</v>
+        <v>220.6</v>
       </c>
       <c r="L10">
-        <v>0.1925681897239672</v>
+        <v>0.05610233717352051</v>
       </c>
       <c r="M10">
-        <v>182.7606</v>
+        <v>264.187</v>
       </c>
       <c r="N10">
-        <v>0.02827535738597686</v>
+        <v>0.1085402629416598</v>
       </c>
       <c r="O10">
-        <v>0.1941989161619382</v>
+        <v>1.197583862194016</v>
       </c>
       <c r="P10">
-        <v>182.7606</v>
+        <v>264.187</v>
       </c>
       <c r="Q10">
-        <v>0.02827535738597686</v>
+        <v>0.1085402629416598</v>
       </c>
       <c r="R10">
-        <v>0.1941989161619382</v>
+        <v>1.197583862194016</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1648,67 +1633,61 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>21675.9</v>
+        <v>31434.9</v>
       </c>
       <c r="V10">
-        <v>3.353533634507086</v>
+        <v>12.91491372226787</v>
       </c>
       <c r="W10">
-        <v>0.06677688530638889</v>
+        <v>0.01557810591134744</v>
       </c>
       <c r="X10">
-        <v>0.1517912861378468</v>
+        <v>0.3514240417604667</v>
       </c>
       <c r="Y10">
-        <v>-0.08501440083145792</v>
+        <v>-0.3358459358491193</v>
       </c>
       <c r="Z10">
-        <v>0.1781787596636555</v>
+        <v>0.1565027383302554</v>
       </c>
       <c r="AA10">
-        <v>-0.0006915425822434421</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.05488867456548704</v>
+        <v>0.05199213006315113</v>
       </c>
       <c r="AC10">
-        <v>-0.05558021714773048</v>
+        <v>-0.05199213006315113</v>
       </c>
       <c r="AD10">
-        <v>32639.8</v>
+        <v>33721.2</v>
       </c>
       <c r="AE10">
-        <v>719.5728478819756</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>33359.37284788198</v>
+        <v>33721.2</v>
       </c>
       <c r="AG10">
-        <v>11683.47284788197</v>
+        <v>2286.299999999996</v>
       </c>
       <c r="AH10">
-        <v>0.8376916754886679</v>
+        <v>0.9326791166969066</v>
       </c>
       <c r="AI10">
-        <v>0.7008761506187181</v>
+        <v>0.692826867247837</v>
       </c>
       <c r="AJ10">
-        <v>0.6438213449529192</v>
+        <v>0.4843548079571209</v>
       </c>
       <c r="AK10">
-        <v>0.4507378277818845</v>
+        <v>0.1326390903289433</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>272.9080267558529</v>
-      </c>
-      <c r="AP10">
-        <v>97.6879000659028</v>
       </c>
     </row>
   </sheetData>
